--- a/Laboratorio1.xlsx
+++ b/Laboratorio1.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unaledu-my.sharepoint.com/personal/armarina_unal_edu_co/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8736EDA1-D17C-4F20-86EF-D90037096C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{8736EDA1-D17C-4F20-86EF-D90037096C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ABB372E8-2E41-4CA3-8F23-2C829A196838}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="20640" windowHeight="11310" activeTab="1" xr2:uid="{6DB7FAC9-B723-4126-B094-B8ABEC693F80}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="20640" windowHeight="11310" xr2:uid="{6DB7FAC9-B723-4126-B094-B8ABEC693F80}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Datos" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,99 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Tiempo</t>
   </si>
   <si>
     <t>Posicion</t>
-  </si>
-  <si>
-    <t>Viscosimetro de esferas</t>
-  </si>
-  <si>
-    <t>Anillo de Du'Nouy</t>
-  </si>
-  <si>
-    <t>Densidad esfera Acero al carbono [g/cmA3]</t>
-  </si>
-  <si>
-    <t>Diametro del anillo [cm]</t>
-  </si>
-  <si>
-    <t>Densidad jabån liquido de cocina [g/ml]</t>
-  </si>
-  <si>
-    <t>Temperatura agua [co] grupo 1</t>
-  </si>
-  <si>
-    <t>F [mN] grupo 1</t>
-  </si>
-  <si>
-    <t>Diametro esfera mas pequeha [in] 1/8 de pulgada</t>
-  </si>
-  <si>
-    <t>Temperatura agua [co] grupo 2</t>
-  </si>
-  <si>
-    <t>F [mN] grupo 2</t>
-  </si>
-  <si>
-    <t>Datos de tiempo [s] grupo 6 a 8am</t>
-  </si>
-  <si>
-    <t>Datos de tiempo [s] grupo 10 a 12m - NOUSAR (leer correo)</t>
-  </si>
-  <si>
-    <t>S (cm)</t>
-  </si>
-  <si>
-    <t>tl</t>
-  </si>
-  <si>
-    <t>t2</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>t4</t>
-  </si>
-  <si>
-    <t>t5</t>
-  </si>
-  <si>
-    <t>t6</t>
-  </si>
-  <si>
-    <t>t7</t>
-  </si>
-  <si>
-    <t>t8</t>
-  </si>
-  <si>
-    <t>t9</t>
-  </si>
-  <si>
-    <t>tiO</t>
-  </si>
-  <si>
-    <t>tll</t>
-  </si>
-  <si>
-    <t>ti2</t>
-  </si>
-  <si>
-    <t>ti3</t>
-  </si>
-  <si>
-    <t>ti4</t>
-  </si>
-  <si>
-    <t>ti5</t>
-  </si>
-  <si>
-    <t>So</t>
   </si>
 </sst>
 </file>
@@ -480,920 +392,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{816DED41-1C24-4C38-9172-3D664C947541}">
-  <dimension ref="A4:AE26"/>
-  <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:N25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="45.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="53.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="6" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="4" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="N4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J5">
-        <v>7.85</v>
-      </c>
-      <c r="N5" t="s">
-        <v>5</v>
-      </c>
-      <c r="X5">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J6">
-        <v>1.014</v>
-      </c>
-      <c r="N6" t="s">
-        <v>7</v>
-      </c>
-      <c r="T6">
-        <v>24.3</v>
-      </c>
-      <c r="V6" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z6">
-        <v>8.1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J7">
-        <v>0.125</v>
-      </c>
-      <c r="N7" t="s">
-        <v>10</v>
-      </c>
-      <c r="T7">
-        <v>24.7</v>
-      </c>
-      <c r="V7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z7">
-        <v>8.1999999999999993</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="E9" t="s">
-        <v>12</v>
-      </c>
-      <c r="R9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" t="s">
-        <v>19</v>
-      </c>
-      <c r="L10" t="s">
-        <v>20</v>
-      </c>
-      <c r="N10" t="s">
-        <v>21</v>
-      </c>
-      <c r="P10" t="s">
-        <v>22</v>
-      </c>
-      <c r="R10" t="s">
-        <v>23</v>
-      </c>
-      <c r="T10" t="s">
-        <v>24</v>
-      </c>
-      <c r="V10" t="s">
-        <v>25</v>
-      </c>
-      <c r="X10" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="W11">
-        <v>0</v>
-      </c>
-      <c r="Y11">
-        <v>0</v>
-      </c>
-      <c r="AA11">
-        <v>0</v>
-      </c>
-      <c r="AC11">
-        <v>0</v>
-      </c>
-      <c r="AE11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>0</v>
-      </c>
-      <c r="B12">
-        <v>1.08</v>
-      </c>
-      <c r="D12">
-        <v>1.32</v>
-      </c>
-      <c r="F12">
-        <v>1.17</v>
-      </c>
-      <c r="H12">
-        <v>1.05</v>
-      </c>
-      <c r="J12">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="L12">
-        <v>1.01</v>
-      </c>
-      <c r="N12">
-        <v>0.97</v>
-      </c>
-      <c r="Q12">
-        <v>1.4</v>
-      </c>
-      <c r="S12">
-        <v>1.7</v>
-      </c>
-      <c r="T12">
-        <v>1.25</v>
-      </c>
-      <c r="V12">
-        <v>1.25</v>
-      </c>
-      <c r="X12">
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>5</v>
-      </c>
-      <c r="B13">
-        <v>4.3600000000000003</v>
-      </c>
-      <c r="D13">
-        <v>4.83</v>
-      </c>
-      <c r="F13">
-        <v>4.45</v>
-      </c>
-      <c r="H13">
-        <v>4.21</v>
-      </c>
-      <c r="J13">
-        <v>4.25</v>
-      </c>
-      <c r="L13">
-        <v>4.12</v>
-      </c>
-      <c r="N13">
-        <v>3.61</v>
-      </c>
-      <c r="P13">
-        <v>3.02</v>
-      </c>
-      <c r="R13">
-        <v>3.69</v>
-      </c>
-      <c r="T13">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="V13">
-        <v>2.68</v>
-      </c>
-      <c r="X13">
-        <v>1.97</v>
-      </c>
-      <c r="Z13">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="AB13">
-        <v>2.63</v>
-      </c>
-      <c r="AE13">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>10</v>
-      </c>
-      <c r="B14">
-        <v>7.78</v>
-      </c>
-      <c r="D14">
-        <v>8.2100000000000009</v>
-      </c>
-      <c r="F14">
-        <v>7.78</v>
-      </c>
-      <c r="H14">
-        <v>7.42</v>
-      </c>
-      <c r="J14">
-        <v>7.4</v>
-      </c>
-      <c r="L14">
-        <v>7.42</v>
-      </c>
-      <c r="N14">
-        <v>6.87</v>
-      </c>
-      <c r="P14">
-        <v>4.76</v>
-      </c>
-      <c r="R14">
-        <v>5.69</v>
-      </c>
-      <c r="T14">
-        <v>4.82</v>
-      </c>
-      <c r="V14">
-        <v>4.8499999999999996</v>
-      </c>
-      <c r="X14">
-        <v>4.2300000000000004</v>
-      </c>
-      <c r="Z14">
-        <v>4.67</v>
-      </c>
-      <c r="AB14">
-        <v>4.6399999999999997</v>
-      </c>
-      <c r="AD14">
-        <v>4.79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>15</v>
-      </c>
-      <c r="B15">
-        <v>11.25</v>
-      </c>
-      <c r="D15">
-        <v>11.72</v>
-      </c>
-      <c r="F15">
-        <v>11.31</v>
-      </c>
-      <c r="H15">
-        <v>10.67</v>
-      </c>
-      <c r="J15">
-        <v>10.47</v>
-      </c>
-      <c r="L15">
-        <v>10.64</v>
-      </c>
-      <c r="N15">
-        <v>10</v>
-      </c>
-      <c r="P15">
-        <v>6.87</v>
-      </c>
-      <c r="R15">
-        <v>7.66</v>
-      </c>
-      <c r="T15">
-        <v>6.76</v>
-      </c>
-      <c r="V15">
-        <v>6.6</v>
-      </c>
-      <c r="X15">
-        <v>6.53</v>
-      </c>
-      <c r="Z15">
-        <v>6.62</v>
-      </c>
-      <c r="AB15">
-        <v>6.57</v>
-      </c>
-      <c r="AD15">
-        <v>6.81</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>20</v>
-      </c>
-      <c r="B16">
-        <v>14.43</v>
-      </c>
-      <c r="D16">
-        <v>14.9</v>
-      </c>
-      <c r="F16">
-        <v>14.49</v>
-      </c>
-      <c r="H16">
-        <v>13.82</v>
-      </c>
-      <c r="J16">
-        <v>13.7</v>
-      </c>
-      <c r="L16">
-        <v>13.81</v>
-      </c>
-      <c r="N16">
-        <v>13.2</v>
-      </c>
-      <c r="P16">
-        <v>8.7899999999999991</v>
-      </c>
-      <c r="R16">
-        <v>9.56</v>
-      </c>
-      <c r="T16">
-        <v>8.59</v>
-      </c>
-      <c r="V16">
-        <v>8.4600000000000009</v>
-      </c>
-      <c r="X16">
-        <v>8.5500000000000007</v>
-      </c>
-      <c r="Z16">
-        <v>8.56</v>
-      </c>
-      <c r="AB16">
-        <v>8.57</v>
-      </c>
-      <c r="AD16">
-        <v>8.75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>25</v>
-      </c>
-      <c r="B17">
-        <v>17.68</v>
-      </c>
-      <c r="D17">
-        <v>18.18</v>
-      </c>
-      <c r="F17">
-        <v>17.87</v>
-      </c>
-      <c r="H17">
-        <v>17.04</v>
-      </c>
-      <c r="J17">
-        <v>16.82</v>
-      </c>
-      <c r="L17">
-        <v>16.809999999999999</v>
-      </c>
-      <c r="N17">
-        <v>16.23</v>
-      </c>
-      <c r="P17">
-        <v>10.64</v>
-      </c>
-      <c r="R17">
-        <v>11.26</v>
-      </c>
-      <c r="T17">
-        <v>10.4</v>
-      </c>
-      <c r="V17">
-        <v>10.42</v>
-      </c>
-      <c r="X17">
-        <v>10.34</v>
-      </c>
-      <c r="Z17">
-        <v>10.5</v>
-      </c>
-      <c r="AB17">
-        <v>10.4</v>
-      </c>
-      <c r="AD17">
-        <v>10.64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>30</v>
-      </c>
-      <c r="B18">
-        <v>21.16</v>
-      </c>
-      <c r="D18">
-        <v>21.2</v>
-      </c>
-      <c r="F18">
-        <v>21.29</v>
-      </c>
-      <c r="H18">
-        <v>20.14</v>
-      </c>
-      <c r="J18">
-        <v>20</v>
-      </c>
-      <c r="L18">
-        <v>20.079999999999998</v>
-      </c>
-      <c r="N18">
-        <v>19.47</v>
-      </c>
-      <c r="P18">
-        <v>12.55</v>
-      </c>
-      <c r="R18">
-        <v>13.25</v>
-      </c>
-      <c r="T18">
-        <v>12.3</v>
-      </c>
-      <c r="V18">
-        <v>12.2</v>
-      </c>
-      <c r="X18">
-        <v>12.24</v>
-      </c>
-      <c r="Z18">
-        <v>12.37</v>
-      </c>
-      <c r="AB18">
-        <v>12.4</v>
-      </c>
-      <c r="AD18">
-        <v>12.54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>35</v>
-      </c>
-      <c r="B19">
-        <v>24.4</v>
-      </c>
-      <c r="D19">
-        <v>24.89</v>
-      </c>
-      <c r="F19">
-        <v>24.53</v>
-      </c>
-      <c r="H19">
-        <v>23.27</v>
-      </c>
-      <c r="J19">
-        <v>22.97</v>
-      </c>
-      <c r="L19">
-        <v>24.4</v>
-      </c>
-      <c r="N19">
-        <v>22.52</v>
-      </c>
-      <c r="P19">
-        <v>14.32</v>
-      </c>
-      <c r="R19">
-        <v>15.08</v>
-      </c>
-      <c r="T19">
-        <v>14.19</v>
-      </c>
-      <c r="V19">
-        <v>14.18</v>
-      </c>
-      <c r="X19">
-        <v>14</v>
-      </c>
-      <c r="Z19">
-        <v>14.31</v>
-      </c>
-      <c r="AB19">
-        <v>14.3</v>
-      </c>
-      <c r="AD19">
-        <v>14.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>40</v>
-      </c>
-      <c r="B20">
-        <v>27.74</v>
-      </c>
-      <c r="D20">
-        <v>28.25</v>
-      </c>
-      <c r="F20">
-        <v>27.79</v>
-      </c>
-      <c r="H20">
-        <v>26.42</v>
-      </c>
-      <c r="J20">
-        <v>26.27</v>
-      </c>
-      <c r="L20">
-        <v>26.31</v>
-      </c>
-      <c r="N20">
-        <v>25.82</v>
-      </c>
-      <c r="P20">
-        <v>16.170000000000002</v>
-      </c>
-      <c r="R20">
-        <v>16.86</v>
-      </c>
-      <c r="T20">
-        <v>15.89</v>
-      </c>
-      <c r="V20">
-        <v>16.04</v>
-      </c>
-      <c r="X20">
-        <v>15.69</v>
-      </c>
-      <c r="Z20">
-        <v>16.100000000000001</v>
-      </c>
-      <c r="AB20">
-        <v>16.07</v>
-      </c>
-      <c r="AD20">
-        <v>16.3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>45</v>
-      </c>
-      <c r="B21">
-        <v>30.91</v>
-      </c>
-      <c r="D21">
-        <v>31.45</v>
-      </c>
-      <c r="F21">
-        <v>30.91</v>
-      </c>
-      <c r="H21">
-        <v>29.65</v>
-      </c>
-      <c r="J21">
-        <v>29.55</v>
-      </c>
-      <c r="L21">
-        <v>29.6</v>
-      </c>
-      <c r="N21">
-        <v>29.07</v>
-      </c>
-      <c r="P21">
-        <v>17.91</v>
-      </c>
-      <c r="R21">
-        <v>18.66</v>
-      </c>
-      <c r="T21">
-        <v>17.7</v>
-      </c>
-      <c r="V21">
-        <v>17.8</v>
-      </c>
-      <c r="X21">
-        <v>17.53</v>
-      </c>
-      <c r="Z21">
-        <v>17.87</v>
-      </c>
-      <c r="AB21">
-        <v>17.86</v>
-      </c>
-      <c r="AD21">
-        <v>18.12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>50</v>
-      </c>
-      <c r="B22">
-        <v>34.07</v>
-      </c>
-      <c r="D22">
-        <v>35.15</v>
-      </c>
-      <c r="F22">
-        <v>34.659999999999997</v>
-      </c>
-      <c r="H22">
-        <v>32.840000000000003</v>
-      </c>
-      <c r="J22">
-        <v>32.659999999999997</v>
-      </c>
-      <c r="L22">
-        <v>32.83</v>
-      </c>
-      <c r="N22">
-        <v>32.22</v>
-      </c>
-      <c r="P22">
-        <v>19.47</v>
-      </c>
-      <c r="R22">
-        <v>20.28</v>
-      </c>
-      <c r="T22">
-        <v>19.260000000000002</v>
-      </c>
-      <c r="V22">
-        <v>19.38</v>
-      </c>
-      <c r="X22">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="Z22">
-        <v>19.59</v>
-      </c>
-      <c r="AB22">
-        <v>19.53</v>
-      </c>
-      <c r="AD22">
-        <v>19.809999999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>55</v>
-      </c>
-      <c r="B23">
-        <v>37.79</v>
-      </c>
-      <c r="D23">
-        <v>38.26</v>
-      </c>
-      <c r="F23">
-        <v>37.659999999999997</v>
-      </c>
-      <c r="H23">
-        <v>36.04</v>
-      </c>
-      <c r="J23">
-        <v>35.67</v>
-      </c>
-      <c r="L23">
-        <v>36.07</v>
-      </c>
-      <c r="N23">
-        <v>35</v>
-      </c>
-      <c r="P23">
-        <v>21.13</v>
-      </c>
-      <c r="R23">
-        <v>21.77</v>
-      </c>
-      <c r="T23">
-        <v>20.92</v>
-      </c>
-      <c r="V23">
-        <v>21.03</v>
-      </c>
-      <c r="X23">
-        <v>20.88</v>
-      </c>
-      <c r="Z23">
-        <v>21.38</v>
-      </c>
-      <c r="AB23">
-        <v>21.33</v>
-      </c>
-      <c r="AD23">
-        <v>21.56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>60</v>
-      </c>
-      <c r="B24">
-        <v>40.98</v>
-      </c>
-      <c r="D24">
-        <v>41.4</v>
-      </c>
-      <c r="F24">
-        <v>40.97</v>
-      </c>
-      <c r="H24">
-        <v>39.409999999999997</v>
-      </c>
-      <c r="J24">
-        <v>39.19</v>
-      </c>
-      <c r="L24">
-        <v>39.200000000000003</v>
-      </c>
-      <c r="N24">
-        <v>38.549999999999997</v>
-      </c>
-      <c r="P24">
-        <v>22.78</v>
-      </c>
-      <c r="R24">
-        <v>23.18</v>
-      </c>
-      <c r="T24">
-        <v>22.54</v>
-      </c>
-      <c r="V24">
-        <v>22.71</v>
-      </c>
-      <c r="X24">
-        <v>22.51</v>
-      </c>
-      <c r="Z24">
-        <v>23.15</v>
-      </c>
-      <c r="AB24">
-        <v>23.26</v>
-      </c>
-      <c r="AD24">
-        <v>23.42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>65</v>
-      </c>
-      <c r="B25">
-        <v>44.63</v>
-      </c>
-      <c r="D25">
-        <v>45.12</v>
-      </c>
-      <c r="F25">
-        <v>44.64</v>
-      </c>
-      <c r="H25">
-        <v>42.59</v>
-      </c>
-      <c r="J25">
-        <v>42.33</v>
-      </c>
-      <c r="L25">
-        <v>42.43</v>
-      </c>
-      <c r="N25">
-        <v>41.83</v>
-      </c>
-      <c r="P25">
-        <v>24.58</v>
-      </c>
-      <c r="R25">
-        <v>25.17</v>
-      </c>
-      <c r="T25">
-        <v>24.37</v>
-      </c>
-      <c r="V25">
-        <v>24.5</v>
-      </c>
-      <c r="X25">
-        <v>24.07</v>
-      </c>
-      <c r="Z25">
-        <v>25.16</v>
-      </c>
-      <c r="AB25">
-        <v>25.14</v>
-      </c>
-      <c r="AD25">
-        <v>25.44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="F26">
-        <v>48.09</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5907B8A2-4446-48DC-ACC5-8DBB5D6479DA}">
   <dimension ref="A1:B99"/>
   <sheetViews>

--- a/Laboratorio1.xlsx
+++ b/Laboratorio1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unaledu-my.sharepoint.com/personal/armarina_unal_edu_co/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Argenis\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{8736EDA1-D17C-4F20-86EF-D90037096C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ABB372E8-2E41-4CA3-8F23-2C829A196838}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{994C6E5F-1727-411E-8ADB-E283FA44C4B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="20640" windowHeight="11310" xr2:uid="{6DB7FAC9-B723-4126-B094-B8ABEC693F80}"/>
   </bookViews>
@@ -38,10 +38,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Tiempo</t>
+    <t>Posición [cm]</t>
   </si>
   <si>
-    <t>Posicion</t>
+    <t>Tiempo [s]</t>
   </si>
 </sst>
 </file>
@@ -396,17 +396,17 @@
   <dimension ref="A1:B99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
